--- a/LBYARCH_MCO2/Compiled_Data.xlsx
+++ b/LBYARCH_MCO2/Compiled_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_GitRepos\LBYARCH_MCO2\LBYARCH_MCO2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF59A43-455A-4BE1-B9E7-B5208A9C20DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641A9DC4-0F7B-4AAF-A6FC-BC18245499A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4DE3320F-A03B-43B3-931F-349A2D6C479F}"/>
   </bookViews>
@@ -347,9 +347,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -631,7 +630,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51EA62E6-4304-45B6-A3D5-AE43E488CB5E}" name="D_C_Kernel_20" displayName="D_C_Kernel_20" ref="K2:M34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="K2:M34" xr:uid="{51EA62E6-4304-45B6-A3D5-AE43E488CB5E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E30463F5-A8C5-4F26-AB5E-6FB2C7753776}" uniqueName="1" name="Iteration" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{E30463F5-A8C5-4F26-AB5E-6FB2C7753776}" uniqueName="1" name="Iteration" queryTableFieldId="1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{88818496-7F98-405D-86A9-E19422F90577}" uniqueName="2" name="IsCorrect" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{EA2FC7FA-E600-4D56-A96B-A2FBAA264958}" uniqueName="3" name="Speed" queryTableFieldId="3"/>
   </tableColumns>
@@ -643,7 +642,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{935EE29C-0702-4AE8-8D95-835FDFB480DB}" name="D_C_Kernel_24" displayName="D_C_Kernel_24" ref="O2:Q34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="O2:Q34" xr:uid="{935EE29C-0702-4AE8-8D95-835FDFB480DB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{96AEBF10-A9F0-46C1-BB96-230A3C28FF51}" uniqueName="1" name="Iteration" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{96AEBF10-A9F0-46C1-BB96-230A3C28FF51}" uniqueName="1" name="Iteration" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{7CB317D5-2EB7-4E7B-9D8C-24F184FD870C}" uniqueName="2" name="IsCorrect" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{FC9858E1-4E0B-40DA-8CDB-74070C9B73BE}" uniqueName="3" name="Speed" queryTableFieldId="3"/>
   </tableColumns>
@@ -655,7 +654,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7047FC59-152D-44B7-9291-5C278E18BC68}" name="D_C_Kernel_30" displayName="D_C_Kernel_30" ref="S2:U34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="S2:U34" xr:uid="{7047FC59-152D-44B7-9291-5C278E18BC68}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{171D1CD8-8697-4D76-BD9F-7E6E0C773010}" uniqueName="1" name="Iteration" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{171D1CD8-8697-4D76-BD9F-7E6E0C773010}" uniqueName="1" name="Iteration" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{4B61F3FA-490E-4962-839A-DCD84A0AE75C}" uniqueName="2" name="IsCorrect" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D471182A-3185-4E68-A4A8-AF854ECE2345}" uniqueName="3" name="Speed" queryTableFieldId="3"/>
   </tableColumns>
@@ -1015,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F574714F-D9EB-4BBC-BA2D-9D7DF0B598AB}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,7 +1029,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
@@ -1100,25 +1099,25 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3">
         <v>871</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3">
@@ -1127,7 +1126,7 @@
       <c r="M3">
         <v>2</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3">
@@ -1136,7 +1135,7 @@
       <c r="Q3">
         <v>32</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>0</v>
       </c>
       <c r="T3">
@@ -1147,25 +1146,25 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>1</v>
       </c>
       <c r="I4">
         <v>1368</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>1</v>
       </c>
       <c r="L4">
@@ -1174,7 +1173,7 @@
       <c r="M4">
         <v>2</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>1</v>
       </c>
       <c r="P4">
@@ -1183,7 +1182,7 @@
       <c r="Q4">
         <v>33</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>1</v>
       </c>
       <c r="T4">
@@ -1194,25 +1193,25 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>2</v>
       </c>
       <c r="I5">
         <v>1114</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>2</v>
       </c>
       <c r="L5">
@@ -1221,7 +1220,7 @@
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>2</v>
       </c>
       <c r="P5">
@@ -1230,7 +1229,7 @@
       <c r="Q5">
         <v>32</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>2</v>
       </c>
       <c r="T5">
@@ -1241,25 +1240,25 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
       <c r="I6">
         <v>834</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>3</v>
       </c>
       <c r="L6">
@@ -1268,7 +1267,7 @@
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>3</v>
       </c>
       <c r="P6">
@@ -1277,7 +1276,7 @@
       <c r="Q6">
         <v>33</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>3</v>
       </c>
       <c r="T6">
@@ -1288,25 +1287,25 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7">
         <v>810</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>4</v>
       </c>
       <c r="L7">
@@ -1315,7 +1314,7 @@
       <c r="M7">
         <v>2</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>4</v>
       </c>
       <c r="P7">
@@ -1324,7 +1323,7 @@
       <c r="Q7">
         <v>34</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>4</v>
       </c>
       <c r="T7">
@@ -1335,25 +1334,25 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>5</v>
       </c>
       <c r="I8">
         <v>915</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>5</v>
       </c>
       <c r="L8">
@@ -1362,7 +1361,7 @@
       <c r="M8">
         <v>2</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>5</v>
       </c>
       <c r="P8">
@@ -1371,7 +1370,7 @@
       <c r="Q8">
         <v>32</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>5</v>
       </c>
       <c r="T8">
@@ -1382,25 +1381,25 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>6</v>
       </c>
       <c r="I9">
         <v>797</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9">
@@ -1409,7 +1408,7 @@
       <c r="M9">
         <v>2</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>6</v>
       </c>
       <c r="P9">
@@ -1418,7 +1417,7 @@
       <c r="Q9">
         <v>32</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>6</v>
       </c>
       <c r="T9">
@@ -1429,25 +1428,25 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>7</v>
       </c>
       <c r="I10">
         <v>852</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>7</v>
       </c>
       <c r="L10">
@@ -1456,7 +1455,7 @@
       <c r="M10">
         <v>2</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>7</v>
       </c>
       <c r="P10">
@@ -1465,7 +1464,7 @@
       <c r="Q10">
         <v>33</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>7</v>
       </c>
       <c r="T10">
@@ -1476,25 +1475,25 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
       <c r="I11">
         <v>806</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>8</v>
       </c>
       <c r="L11">
@@ -1503,7 +1502,7 @@
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>8</v>
       </c>
       <c r="P11">
@@ -1512,7 +1511,7 @@
       <c r="Q11">
         <v>32</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>8</v>
       </c>
       <c r="T11">
@@ -1523,25 +1522,25 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12">
         <v>801</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="L12">
@@ -1550,7 +1549,7 @@
       <c r="M12">
         <v>2</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>9</v>
       </c>
       <c r="P12">
@@ -1559,7 +1558,7 @@
       <c r="Q12">
         <v>34</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>9</v>
       </c>
       <c r="T12">
@@ -1570,25 +1569,25 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>10</v>
       </c>
       <c r="I13">
         <v>798</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>10</v>
       </c>
       <c r="L13">
@@ -1597,7 +1596,7 @@
       <c r="M13">
         <v>2</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>10</v>
       </c>
       <c r="P13">
@@ -1606,7 +1605,7 @@
       <c r="Q13">
         <v>32</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>10</v>
       </c>
       <c r="T13">
@@ -1617,25 +1616,25 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
       <c r="I14">
         <v>861</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>11</v>
       </c>
       <c r="L14">
@@ -1644,7 +1643,7 @@
       <c r="M14">
         <v>2</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>11</v>
       </c>
       <c r="P14">
@@ -1653,7 +1652,7 @@
       <c r="Q14">
         <v>33</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>11</v>
       </c>
       <c r="T14">
@@ -1664,25 +1663,25 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15">
         <v>939</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>12</v>
       </c>
       <c r="L15">
@@ -1691,7 +1690,7 @@
       <c r="M15">
         <v>2</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>12</v>
       </c>
       <c r="P15">
@@ -1700,7 +1699,7 @@
       <c r="Q15">
         <v>32</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>12</v>
       </c>
       <c r="T15">
@@ -1711,25 +1710,25 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
         <v>1025</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>13</v>
       </c>
       <c r="L16">
@@ -1738,7 +1737,7 @@
       <c r="M16">
         <v>2</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
         <v>13</v>
       </c>
       <c r="P16">
@@ -1747,7 +1746,7 @@
       <c r="Q16">
         <v>32</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>13</v>
       </c>
       <c r="T16">
@@ -1758,25 +1757,25 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17">
         <v>13</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
         <v>824</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>14</v>
       </c>
       <c r="L17">
@@ -1785,7 +1784,7 @@
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>14</v>
       </c>
       <c r="P17">
@@ -1794,7 +1793,7 @@
       <c r="Q17">
         <v>32</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>14</v>
       </c>
       <c r="T17">
@@ -1805,25 +1804,25 @@
       </c>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18">
         <v>804</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>15</v>
       </c>
       <c r="L18">
@@ -1832,7 +1831,7 @@
       <c r="M18">
         <v>2</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
         <v>15</v>
       </c>
       <c r="P18">
@@ -1841,7 +1840,7 @@
       <c r="Q18">
         <v>32</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>15</v>
       </c>
       <c r="T18">
@@ -1852,25 +1851,25 @@
       </c>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19">
         <v>838</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>16</v>
       </c>
       <c r="L19">
@@ -1879,7 +1878,7 @@
       <c r="M19">
         <v>2</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>16</v>
       </c>
       <c r="P19">
@@ -1888,7 +1887,7 @@
       <c r="Q19">
         <v>32</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>16</v>
       </c>
       <c r="T19">
@@ -1899,25 +1898,25 @@
       </c>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20">
         <v>13</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20">
         <v>872</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>17</v>
       </c>
       <c r="L20">
@@ -1926,7 +1925,7 @@
       <c r="M20">
         <v>2</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" t="s">
         <v>17</v>
       </c>
       <c r="P20">
@@ -1935,7 +1934,7 @@
       <c r="Q20">
         <v>33</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s">
         <v>17</v>
       </c>
       <c r="T20">
@@ -1946,25 +1945,25 @@
       </c>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21">
         <v>887</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>18</v>
       </c>
       <c r="L21">
@@ -1973,7 +1972,7 @@
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" t="s">
         <v>18</v>
       </c>
       <c r="P21">
@@ -1982,7 +1981,7 @@
       <c r="Q21">
         <v>33</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" t="s">
         <v>18</v>
       </c>
       <c r="T21">
@@ -1993,25 +1992,25 @@
       </c>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22">
         <v>15</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22">
         <v>822</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>19</v>
       </c>
       <c r="L22">
@@ -2020,7 +2019,7 @@
       <c r="M22">
         <v>2</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" t="s">
         <v>19</v>
       </c>
       <c r="P22">
@@ -2029,7 +2028,7 @@
       <c r="Q22">
         <v>32</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" t="s">
         <v>19</v>
       </c>
       <c r="T22">
@@ -2040,25 +2039,25 @@
       </c>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23">
         <v>13</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23">
         <v>1306</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>20</v>
       </c>
       <c r="L23">
@@ -2067,7 +2066,7 @@
       <c r="M23">
         <v>2</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" t="s">
         <v>20</v>
       </c>
       <c r="P23">
@@ -2076,7 +2075,7 @@
       <c r="Q23">
         <v>33</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s">
         <v>20</v>
       </c>
       <c r="T23">
@@ -2087,25 +2086,25 @@
       </c>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>21</v>
       </c>
       <c r="F24">
         <v>13</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>21</v>
       </c>
       <c r="I24">
         <v>968</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>21</v>
       </c>
       <c r="L24">
@@ -2114,7 +2113,7 @@
       <c r="M24">
         <v>2</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" t="s">
         <v>21</v>
       </c>
       <c r="P24">
@@ -2123,7 +2122,7 @@
       <c r="Q24">
         <v>33</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s">
         <v>21</v>
       </c>
       <c r="T24">
@@ -2134,25 +2133,25 @@
       </c>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
       <c r="F25">
         <v>14</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25">
         <v>1063</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>22</v>
       </c>
       <c r="L25">
@@ -2161,7 +2160,7 @@
       <c r="M25">
         <v>2</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" t="s">
         <v>22</v>
       </c>
       <c r="P25">
@@ -2170,7 +2169,7 @@
       <c r="Q25">
         <v>33</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" t="s">
         <v>22</v>
       </c>
       <c r="T25">
@@ -2181,25 +2180,25 @@
       </c>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26">
         <v>12</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>23</v>
       </c>
       <c r="I26">
         <v>820</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
         <v>23</v>
       </c>
       <c r="L26">
@@ -2208,7 +2207,7 @@
       <c r="M26">
         <v>2</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" t="s">
         <v>23</v>
       </c>
       <c r="P26">
@@ -2217,7 +2216,7 @@
       <c r="Q26">
         <v>33</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" t="s">
         <v>23</v>
       </c>
       <c r="T26">
@@ -2228,25 +2227,25 @@
       </c>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="F27">
         <v>14</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>24</v>
       </c>
       <c r="I27">
         <v>823</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
         <v>24</v>
       </c>
       <c r="L27">
@@ -2255,7 +2254,7 @@
       <c r="M27">
         <v>2</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" t="s">
         <v>24</v>
       </c>
       <c r="P27">
@@ -2264,7 +2263,7 @@
       <c r="Q27">
         <v>32</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" t="s">
         <v>24</v>
       </c>
       <c r="T27">
@@ -2275,25 +2274,25 @@
       </c>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
       <c r="F28">
         <v>14</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>25</v>
       </c>
       <c r="I28">
         <v>832</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>25</v>
       </c>
       <c r="L28">
@@ -2302,7 +2301,7 @@
       <c r="M28">
         <v>2</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" t="s">
         <v>25</v>
       </c>
       <c r="P28">
@@ -2311,7 +2310,7 @@
       <c r="Q28">
         <v>34</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" t="s">
         <v>25</v>
       </c>
       <c r="T28">
@@ -2322,25 +2321,25 @@
       </c>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29">
         <v>14</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>26</v>
       </c>
       <c r="I29">
         <v>882</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" t="s">
         <v>26</v>
       </c>
       <c r="L29">
@@ -2349,7 +2348,7 @@
       <c r="M29">
         <v>2</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" t="s">
         <v>26</v>
       </c>
       <c r="P29">
@@ -2358,7 +2357,7 @@
       <c r="Q29">
         <v>33</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" t="s">
         <v>26</v>
       </c>
       <c r="T29">
@@ -2369,25 +2368,25 @@
       </c>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>27</v>
       </c>
       <c r="F30">
         <v>13</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>27</v>
       </c>
       <c r="I30">
         <v>841</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" t="s">
         <v>27</v>
       </c>
       <c r="L30">
@@ -2396,7 +2395,7 @@
       <c r="M30">
         <v>2</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" t="s">
         <v>27</v>
       </c>
       <c r="P30">
@@ -2405,7 +2404,7 @@
       <c r="Q30">
         <v>32</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" t="s">
         <v>27</v>
       </c>
       <c r="T30">
@@ -2416,25 +2415,25 @@
       </c>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>28</v>
       </c>
       <c r="F31">
         <v>13</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>28</v>
       </c>
       <c r="I31">
         <v>858</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" t="s">
         <v>28</v>
       </c>
       <c r="L31">
@@ -2443,7 +2442,7 @@
       <c r="M31">
         <v>2</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" t="s">
         <v>28</v>
       </c>
       <c r="P31">
@@ -2452,7 +2451,7 @@
       <c r="Q31">
         <v>32</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" t="s">
         <v>28</v>
       </c>
       <c r="T31">
@@ -2463,25 +2462,25 @@
       </c>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32">
         <v>13</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
         <v>29</v>
       </c>
       <c r="I32">
         <v>827</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" t="s">
         <v>29</v>
       </c>
       <c r="L32">
@@ -2490,7 +2489,7 @@
       <c r="M32">
         <v>2</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" t="s">
         <v>29</v>
       </c>
       <c r="P32">
@@ -2499,7 +2498,7 @@
       <c r="Q32">
         <v>32</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" t="s">
         <v>29</v>
       </c>
       <c r="T32">
@@ -2510,22 +2509,22 @@
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" t="s">
         <v>30</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2533,22 +2532,22 @@
       <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" t="s">
         <v>40</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="S34" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2581,111 +2580,93 @@
         <v>2301.6666666666665</v>
       </c>
     </row>
+    <row r="38" spans="1:19">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="39" spans="1:19">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" t="s">
-        <v>64</v>
+      <c r="B40">
+        <f>B36</f>
+        <v>0.7</v>
+      </c>
+      <c r="C40">
+        <f>K36</f>
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <f>ABS((B40-C40)/B40)</f>
+        <v>1.8571428571428574</v>
+      </c>
+      <c r="F40" s="2">
+        <f>(C40-B40)/C40</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="B41">
-        <f>B36</f>
-        <v>0.7</v>
+        <f>E36</f>
+        <v>13.466666666666667</v>
       </c>
       <c r="C41">
-        <f>K36</f>
-        <v>2</v>
-      </c>
-      <c r="E41" s="3">
-        <f>ABS((B41-C41)/B41)</f>
-        <v>1.8571428571428574</v>
-      </c>
-      <c r="F41" s="3">
-        <f>(C41-B41)/C41</f>
-        <v>0.65</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0.2727</v>
-      </c>
+        <f>O36</f>
+        <v>32.56666666666667</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41:E42" si="0">ABS((B41-C41)/B41)</f>
+        <v>1.4183168316831685</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" ref="F41:F42" si="1">(C41-B41)/C41</f>
+        <v>0.58648925281473896</v>
+      </c>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:19">
       <c r="B42">
-        <f>E36</f>
-        <v>13.466666666666667</v>
-      </c>
-      <c r="C42">
-        <f>O36</f>
-        <v>32.56666666666667</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" ref="E42:E43" si="0">ABS((B42-C42)/B42)</f>
-        <v>1.4183168316831685</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" ref="F42:F43" si="1">(C42-B42)/C42</f>
-        <v>0.58648925281473896</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="B43">
         <f>H36</f>
         <v>901.93333333333328</v>
       </c>
-      <c r="C43">
+      <c r="C42">
         <f>S36</f>
         <v>2301.6666666666665</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>1.5519254933845812</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>0.60813902968863143</v>
       </c>
     </row>
     <row r="44" spans="1:19">
-      <c r="E44" s="3"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="E45" s="3"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="B46" s="5">
-        <v>5.1059999999999999</v>
-      </c>
-      <c r="C46">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="E46" s="3">
-        <f>(B46-C47)/C47</f>
-        <v>5</v>
-      </c>
+      <c r="B46" s="4"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="B47" s="5">
-        <v>5.1059999999999999</v>
-      </c>
-      <c r="C47">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="E47" s="3">
-        <f>(B47-C47)/B47</f>
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B47" s="4"/>
+      <c r="E47" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3:L32">
@@ -2708,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5600926F-ED31-4F64-A414-DFED2473A776}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2724,7 +2705,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
@@ -2794,25 +2775,25 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3">
         <v>809</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3">
@@ -2821,7 +2802,7 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3">
@@ -2830,7 +2811,7 @@
       <c r="Q3">
         <v>10</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>0</v>
       </c>
       <c r="T3">
@@ -2841,25 +2822,25 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>1</v>
       </c>
       <c r="I4">
         <v>819</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>1</v>
       </c>
       <c r="L4">
@@ -2868,7 +2849,7 @@
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>1</v>
       </c>
       <c r="P4">
@@ -2877,7 +2858,7 @@
       <c r="Q4">
         <v>10</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>1</v>
       </c>
       <c r="T4">
@@ -2888,25 +2869,25 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>2</v>
       </c>
       <c r="I5">
         <v>852</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>2</v>
       </c>
       <c r="L5">
@@ -2915,7 +2896,7 @@
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>2</v>
       </c>
       <c r="P5">
@@ -2924,7 +2905,7 @@
       <c r="Q5">
         <v>11</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>2</v>
       </c>
       <c r="T5">
@@ -2935,25 +2916,25 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
       <c r="I6">
         <v>819</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>3</v>
       </c>
       <c r="L6">
@@ -2962,7 +2943,7 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>3</v>
       </c>
       <c r="P6">
@@ -2971,7 +2952,7 @@
       <c r="Q6">
         <v>11</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>3</v>
       </c>
       <c r="T6">
@@ -2982,25 +2963,25 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7">
         <v>817</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>4</v>
       </c>
       <c r="L7">
@@ -3009,7 +2990,7 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>4</v>
       </c>
       <c r="P7">
@@ -3018,7 +2999,7 @@
       <c r="Q7">
         <v>11</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>4</v>
       </c>
       <c r="T7">
@@ -3029,25 +3010,25 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>5</v>
       </c>
       <c r="I8">
         <v>850</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>5</v>
       </c>
       <c r="L8">
@@ -3056,7 +3037,7 @@
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>5</v>
       </c>
       <c r="P8">
@@ -3065,7 +3046,7 @@
       <c r="Q8">
         <v>11</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>5</v>
       </c>
       <c r="T8">
@@ -3076,25 +3057,25 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>6</v>
       </c>
       <c r="I9">
         <v>828</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9">
@@ -3103,7 +3084,7 @@
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>6</v>
       </c>
       <c r="P9">
@@ -3112,7 +3093,7 @@
       <c r="Q9">
         <v>12</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>6</v>
       </c>
       <c r="T9">
@@ -3123,25 +3104,25 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>7</v>
       </c>
       <c r="I10">
         <v>879</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>7</v>
       </c>
       <c r="L10">
@@ -3150,7 +3131,7 @@
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>7</v>
       </c>
       <c r="P10">
@@ -3159,7 +3140,7 @@
       <c r="Q10">
         <v>11</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>7</v>
       </c>
       <c r="T10">
@@ -3170,25 +3151,25 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
       <c r="I11">
         <v>822</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>8</v>
       </c>
       <c r="L11">
@@ -3197,7 +3178,7 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>8</v>
       </c>
       <c r="P11">
@@ -3206,7 +3187,7 @@
       <c r="Q11">
         <v>10</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>8</v>
       </c>
       <c r="T11">
@@ -3217,25 +3198,25 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12">
         <v>845</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="L12">
@@ -3244,7 +3225,7 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>9</v>
       </c>
       <c r="P12">
@@ -3253,7 +3234,7 @@
       <c r="Q12">
         <v>11</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>9</v>
       </c>
       <c r="T12">
@@ -3264,25 +3245,25 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>10</v>
       </c>
       <c r="I13">
         <v>834</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>10</v>
       </c>
       <c r="L13">
@@ -3291,7 +3272,7 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>10</v>
       </c>
       <c r="P13">
@@ -3300,7 +3281,7 @@
       <c r="Q13">
         <v>12</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>10</v>
       </c>
       <c r="T13">
@@ -3311,25 +3292,25 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
       <c r="I14">
         <v>816</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>11</v>
       </c>
       <c r="L14">
@@ -3338,7 +3319,7 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>11</v>
       </c>
       <c r="P14">
@@ -3347,7 +3328,7 @@
       <c r="Q14">
         <v>10</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>11</v>
       </c>
       <c r="T14">
@@ -3358,25 +3339,25 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15">
         <v>15</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15">
         <v>849</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>12</v>
       </c>
       <c r="L15">
@@ -3385,7 +3366,7 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>12</v>
       </c>
       <c r="P15">
@@ -3394,7 +3375,7 @@
       <c r="Q15">
         <v>13</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>12</v>
       </c>
       <c r="T15">
@@ -3405,25 +3386,25 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
         <v>821</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>13</v>
       </c>
       <c r="L16">
@@ -3432,7 +3413,7 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
         <v>13</v>
       </c>
       <c r="P16">
@@ -3441,7 +3422,7 @@
       <c r="Q16">
         <v>12</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>13</v>
       </c>
       <c r="T16">
@@ -3452,25 +3433,25 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17">
         <v>13</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
         <v>812</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>14</v>
       </c>
       <c r="L17">
@@ -3479,7 +3460,7 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>14</v>
       </c>
       <c r="P17">
@@ -3488,7 +3469,7 @@
       <c r="Q17">
         <v>12</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>14</v>
       </c>
       <c r="T17">
@@ -3499,25 +3480,25 @@
       </c>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18">
         <v>13</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18">
         <v>821</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>15</v>
       </c>
       <c r="L18">
@@ -3526,7 +3507,7 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
         <v>15</v>
       </c>
       <c r="P18">
@@ -3535,7 +3516,7 @@
       <c r="Q18">
         <v>11</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>15</v>
       </c>
       <c r="T18">
@@ -3546,25 +3527,25 @@
       </c>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19">
         <v>13</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19">
         <v>849</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>16</v>
       </c>
       <c r="L19">
@@ -3573,7 +3554,7 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>16</v>
       </c>
       <c r="P19">
@@ -3582,7 +3563,7 @@
       <c r="Q19">
         <v>11</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>16</v>
       </c>
       <c r="T19">
@@ -3593,25 +3574,25 @@
       </c>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20">
         <v>13</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20">
         <v>824</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>17</v>
       </c>
       <c r="L20">
@@ -3620,7 +3601,7 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" t="s">
         <v>17</v>
       </c>
       <c r="P20">
@@ -3629,7 +3610,7 @@
       <c r="Q20">
         <v>11</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s">
         <v>17</v>
       </c>
       <c r="T20">
@@ -3640,25 +3621,25 @@
       </c>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21">
         <v>13</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21">
         <v>807</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>18</v>
       </c>
       <c r="L21">
@@ -3667,7 +3648,7 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" t="s">
         <v>18</v>
       </c>
       <c r="P21">
@@ -3676,7 +3657,7 @@
       <c r="Q21">
         <v>11</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" t="s">
         <v>18</v>
       </c>
       <c r="T21">
@@ -3687,25 +3668,25 @@
       </c>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22">
         <v>14</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22">
         <v>830</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>19</v>
       </c>
       <c r="L22">
@@ -3714,7 +3695,7 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" t="s">
         <v>19</v>
       </c>
       <c r="P22">
@@ -3723,7 +3704,7 @@
       <c r="Q22">
         <v>14</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" t="s">
         <v>19</v>
       </c>
       <c r="T22">
@@ -3734,25 +3715,25 @@
       </c>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23">
         <v>14</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23">
         <v>827</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>20</v>
       </c>
       <c r="L23">
@@ -3761,7 +3742,7 @@
       <c r="M23">
         <v>1</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" t="s">
         <v>20</v>
       </c>
       <c r="P23">
@@ -3770,7 +3751,7 @@
       <c r="Q23">
         <v>11</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s">
         <v>20</v>
       </c>
       <c r="T23">
@@ -3781,25 +3762,25 @@
       </c>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>21</v>
       </c>
       <c r="F24">
         <v>13</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>21</v>
       </c>
       <c r="I24">
         <v>858</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>21</v>
       </c>
       <c r="L24">
@@ -3808,7 +3789,7 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" t="s">
         <v>21</v>
       </c>
       <c r="P24">
@@ -3817,7 +3798,7 @@
       <c r="Q24">
         <v>11</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s">
         <v>21</v>
       </c>
       <c r="T24">
@@ -3828,25 +3809,25 @@
       </c>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
       <c r="F25">
         <v>13</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25">
         <v>823</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>22</v>
       </c>
       <c r="L25">
@@ -3855,7 +3836,7 @@
       <c r="M25">
         <v>1</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" t="s">
         <v>22</v>
       </c>
       <c r="P25">
@@ -3864,7 +3845,7 @@
       <c r="Q25">
         <v>11</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" t="s">
         <v>22</v>
       </c>
       <c r="T25">
@@ -3875,25 +3856,25 @@
       </c>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26">
         <v>12</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>23</v>
       </c>
       <c r="I26">
         <v>820</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
         <v>23</v>
       </c>
       <c r="L26">
@@ -3902,7 +3883,7 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" t="s">
         <v>23</v>
       </c>
       <c r="P26">
@@ -3911,7 +3892,7 @@
       <c r="Q26">
         <v>11</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" t="s">
         <v>23</v>
       </c>
       <c r="T26">
@@ -3922,25 +3903,25 @@
       </c>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="F27">
         <v>13</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>24</v>
       </c>
       <c r="I27">
         <v>873</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
         <v>24</v>
       </c>
       <c r="L27">
@@ -3949,7 +3930,7 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" t="s">
         <v>24</v>
       </c>
       <c r="P27">
@@ -3958,7 +3939,7 @@
       <c r="Q27">
         <v>11</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" t="s">
         <v>24</v>
       </c>
       <c r="T27">
@@ -3969,25 +3950,25 @@
       </c>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
       <c r="F28">
         <v>14</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>25</v>
       </c>
       <c r="I28">
         <v>807</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>25</v>
       </c>
       <c r="L28">
@@ -3996,7 +3977,7 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" t="s">
         <v>25</v>
       </c>
       <c r="P28">
@@ -4005,7 +3986,7 @@
       <c r="Q28">
         <v>13</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" t="s">
         <v>25</v>
       </c>
       <c r="T28">
@@ -4016,25 +3997,25 @@
       </c>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29">
         <v>13</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>26</v>
       </c>
       <c r="I29">
         <v>819</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" t="s">
         <v>26</v>
       </c>
       <c r="L29">
@@ -4043,7 +4024,7 @@
       <c r="M29">
         <v>1</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" t="s">
         <v>26</v>
       </c>
       <c r="P29">
@@ -4052,7 +4033,7 @@
       <c r="Q29">
         <v>11</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" t="s">
         <v>26</v>
       </c>
       <c r="T29">
@@ -4063,25 +4044,25 @@
       </c>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>27</v>
       </c>
       <c r="F30">
         <v>13</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>27</v>
       </c>
       <c r="I30">
         <v>865</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" t="s">
         <v>27</v>
       </c>
       <c r="L30">
@@ -4090,7 +4071,7 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" t="s">
         <v>27</v>
       </c>
       <c r="P30">
@@ -4099,7 +4080,7 @@
       <c r="Q30">
         <v>11</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" t="s">
         <v>27</v>
       </c>
       <c r="T30">
@@ -4110,25 +4091,25 @@
       </c>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>28</v>
       </c>
       <c r="F31">
         <v>13</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>28</v>
       </c>
       <c r="I31">
         <v>817</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" t="s">
         <v>28</v>
       </c>
       <c r="L31">
@@ -4137,7 +4118,7 @@
       <c r="M31">
         <v>1</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" t="s">
         <v>28</v>
       </c>
       <c r="P31">
@@ -4146,7 +4127,7 @@
       <c r="Q31">
         <v>11</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" t="s">
         <v>28</v>
       </c>
       <c r="T31">
@@ -4157,25 +4138,25 @@
       </c>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32">
         <v>12</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
         <v>29</v>
       </c>
       <c r="I32">
         <v>863</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" t="s">
         <v>29</v>
       </c>
       <c r="L32">
@@ -4184,7 +4165,7 @@
       <c r="M32">
         <v>1</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" t="s">
         <v>29</v>
       </c>
       <c r="P32">
@@ -4193,7 +4174,7 @@
       <c r="Q32">
         <v>11</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" t="s">
         <v>29</v>
       </c>
       <c r="T32">
@@ -4204,22 +4185,22 @@
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" t="s">
         <v>30</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4227,22 +4208,22 @@
       <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>48</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" t="s">
         <v>49</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="S34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4275,75 +4256,75 @@
         <v>752.13333333333333</v>
       </c>
     </row>
+    <row r="38" spans="1:19">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="39" spans="1:19">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="F39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" t="s">
-        <v>66</v>
+      <c r="B40">
+        <f>B36</f>
+        <v>0.7</v>
+      </c>
+      <c r="C40">
+        <f>K36</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E40" s="2">
+        <f>ABS((B40-C40)/B40)</f>
+        <v>0.19047619047619044</v>
+      </c>
+      <c r="F40" s="2">
+        <f>ABS((C40-B40)/C40)</f>
+        <v>0.23529411764705876</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="B41">
-        <f>B36</f>
-        <v>0.7</v>
+        <f>E36</f>
+        <v>13.2</v>
       </c>
       <c r="C41">
-        <f>K36</f>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="E41" s="3">
-        <f>ABS((B41-C41)/B41)</f>
-        <v>0.19047619047619044</v>
-      </c>
-      <c r="F41" s="3">
-        <f>ABS((C41-B41)/C41)</f>
-        <v>0.23529411764705876</v>
+        <f>O36</f>
+        <v>11.233333333333333</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41:E42" si="0">ABS((B41-C41)/B41)</f>
+        <v>0.14898989898989901</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" ref="F41:F42" si="1">ABS((C41-B41)/C41)</f>
+        <v>0.17507418397626115</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="B42">
-        <f>E36</f>
-        <v>13.2</v>
-      </c>
-      <c r="C42">
-        <f>O36</f>
-        <v>11.233333333333333</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" ref="E42:E43" si="0">ABS((B42-C42)/B42)</f>
-        <v>0.14898989898989901</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" ref="F42:F43" si="1">ABS((C42-B42)/C42)</f>
-        <v>0.17507418397626115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="B43">
         <f>H36</f>
         <v>832.5</v>
       </c>
-      <c r="C43">
+      <c r="C42">
         <f>S36</f>
         <v>752.13333333333333</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>9.6536536536536544E-2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>0.10685162205282753</v>
       </c>
